--- a/artfynd/A 33191-2021 artfynd.xlsx
+++ b/artfynd/A 33191-2021 artfynd.xlsx
@@ -989,7 +989,7 @@
         <v>130563202</v>
       </c>
       <c r="B5" t="n">
-        <v>101211</v>
+        <v>101215</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>130564232</v>
       </c>
       <c r="B6" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>130563203</v>
       </c>
       <c r="B7" t="n">
-        <v>92263</v>
+        <v>92267</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>130564233</v>
       </c>
       <c r="B8" t="n">
-        <v>92263</v>
+        <v>92267</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>130564758</v>
       </c>
       <c r="B9" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>130593889</v>
       </c>
       <c r="B11" t="n">
-        <v>57826</v>
+        <v>57830</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
